--- a/examples/drinkingSawyer_rewards.xlsx
+++ b/examples/drinkingSawyer_rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nealg\git\assistive-gym\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54019296-1924-48D1-8650-D4D8DAD49458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA55BE-A645-4906-8109-CD876F5A6810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{712AB84D-F63E-4FDC-8BF8-AC3EF9685958}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{712AB84D-F63E-4FDC-8BF8-AC3EF9685958}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,94 +402,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0967F3D7-6102-445B-B417-6E5D105C466A}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>425.77058547403402</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <f>AVERAGE(A:A)</f>
         <v>366.78239376472709</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>520.67217670833998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>MAX(A:A)</f>
+        <v>564.64070872151206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>282.67763645953897</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>MIN(A:A)</f>
+        <v>-113.0525094365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>564.64070872151206</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>168.838365913377</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>528.60922934968301</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>530.47685610313795</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>503.719011129774</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>505.49316010076802</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>303.28075243121401</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-106.869879851561</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>531.83180645931395</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>271.95191452547101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>521.09161999868002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>168.059282366921</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>523.91715093788196</v>
       </c>
@@ -893,5 +933,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>